--- a/html/resources/ioaConditions/train1P1Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P1Block5Test.xlsx
@@ -34,16 +34,16 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
+    <t>trainingaudio/24_takopa2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/24_banana.png</t>
   </si>
   <si>
     <t>train1P1</t>
   </si>
   <si>
-    <t>pngimages/12_pie.png</t>
+    <t>pngimages/09_plane.png</t>
   </si>
 </sst>
 </file>

--- a/html/resources/ioaConditions/train1P1Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P1Block5Test.xlsx
@@ -34,7 +34,7 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa2.wav</t>
+    <t>trainingaudio/24_takopa2.mp3</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>

--- a/html/resources/ioaConditions/train1P1Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P1Block5Test.xlsx
@@ -34,7 +34,7 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa2.mp3</t>
+    <t>trainingaudio/24_takopa2.ogg</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>

--- a/html/resources/ioaConditions/train1P1Block5Test.xlsx
+++ b/html/resources/ioaConditions/train1P1Block5Test.xlsx
@@ -34,7 +34,7 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa2.ogg</t>
+    <t>trainingaudio/24_takopa2.wav</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>
